--- a/CalendarioEvaluaciones.xlsx
+++ b/CalendarioEvaluaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizi\OneDrive\Escritorio\UES 2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Vasquez\Desktop\UES-2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF007DB3-5FE9-4167-BD14-FD87ACF4FF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E494F1-1C2C-4323-93A0-DA282CA2B79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1099,20 +1102,20 @@
       <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="2"/>
-    <col min="2" max="2" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="2"/>
+    <col min="2" max="2" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.33203125" style="2"/>
+    <col min="8" max="8" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="1" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" s="1" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
@@ -1157,7 +1160,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
         <v>7</v>
       </c>
@@ -1176,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
         <v>9</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="32" t="s">
         <v>11</v>
       </c>
@@ -1217,7 +1220,7 @@
       <c r="G5" s="29"/>
       <c r="H5" s="30"/>
     </row>
-    <row r="6" spans="2:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>8</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="32" t="s">
         <v>11</v>
       </c>
@@ -1254,7 +1257,7 @@
       <c r="G7" s="29"/>
       <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="2:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
         <v>7</v>
       </c>
@@ -1276,7 +1279,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
         <v>10</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="41" t="s">
         <v>10</v>
       </c>
@@ -1319,7 +1322,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="46"/>
     </row>
-    <row r="11" spans="2:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="47" t="s">
         <v>9</v>
       </c>
@@ -1340,7 +1343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="32" t="s">
         <v>11</v>
       </c>
@@ -1361,7 +1364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="40" t="s">
         <v>10</v>
       </c>
@@ -1386,7 +1389,7 @@
       </c>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="2:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="48" t="s">
         <v>8</v>
       </c>
@@ -1406,7 +1409,7 @@
       <c r="H14" s="30"/>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="2:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="49" t="s">
         <v>7</v>
       </c>
@@ -1429,7 +1432,7 @@
       </c>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="2:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="50" t="s">
         <v>8</v>
       </c>
@@ -1449,7 +1452,7 @@
       <c r="H16" s="46"/>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="2:14" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="32" t="s">
         <v>11</v>
       </c>
@@ -1471,7 +1474,7 @@
       </c>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="2:14" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="51" t="s">
         <v>11</v>
       </c>
@@ -1492,7 +1495,7 @@
       </c>
       <c r="J18" s="14"/>
     </row>
-    <row r="19" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
         <v>10</v>
       </c>
@@ -1517,7 +1520,7 @@
       </c>
       <c r="J19" s="14"/>
     </row>
-    <row r="20" spans="2:14" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="52" t="s">
         <v>9</v>
       </c>
@@ -1535,7 +1538,7 @@
       <c r="H20" s="30"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="40" t="s">
         <v>10</v>
       </c>
@@ -1558,7 +1561,7 @@
       </c>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="50" t="s">
         <v>8</v>
       </c>
@@ -1578,7 +1581,7 @@
       <c r="H22" s="46"/>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="53" t="s">
         <v>11</v>
       </c>
@@ -1600,7 +1603,7 @@
       </c>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="2:14" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="52" t="s">
         <v>9</v>
       </c>
@@ -1622,7 +1625,7 @@
       </c>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="49" t="s">
         <v>7</v>
       </c>
@@ -1642,7 +1645,7 @@
       </c>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="41" t="s">
         <v>10</v>
       </c>
@@ -1667,7 +1670,7 @@
       </c>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="47" t="s">
         <v>9</v>
       </c>
@@ -1688,7 +1691,7 @@
       <c r="J27" s="14"/>
       <c r="N27" s="16"/>
     </row>
-    <row r="28" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="50" t="s">
         <v>8</v>
       </c>
@@ -1708,7 +1711,7 @@
       <c r="H28" s="46"/>
       <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="56" t="s">
         <v>7</v>
       </c>
@@ -1728,7 +1731,7 @@
       </c>
       <c r="J29" s="14"/>
     </row>
-    <row r="30" spans="2:14" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="32" t="s">
         <v>11</v>
       </c>
@@ -1750,7 +1753,7 @@
       </c>
       <c r="J30" s="14"/>
     </row>
-    <row r="31" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="59" t="s">
         <v>11</v>
       </c>
@@ -1772,7 +1775,7 @@
       </c>
       <c r="J31" s="14"/>
     </row>
-    <row r="32" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="56" t="s">
         <v>7</v>
       </c>
@@ -1794,7 +1797,7 @@
       <c r="J32" s="14"/>
       <c r="M32" s="16"/>
     </row>
-    <row r="33" spans="2:15" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:15" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="52" t="s">
         <v>9</v>
       </c>
@@ -1812,7 +1815,7 @@
       <c r="H33" s="30"/>
       <c r="J33" s="14"/>
     </row>
-    <row r="34" spans="2:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="49" t="s">
         <v>7</v>
       </c>
@@ -1830,7 +1833,7 @@
       <c r="H34" s="23"/>
       <c r="J34" s="14"/>
     </row>
-    <row r="35" spans="2:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="41" t="s">
         <v>10</v>
       </c>
@@ -1853,7 +1856,7 @@
       </c>
       <c r="J35" s="14"/>
     </row>
-    <row r="36" spans="2:15" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:15" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="52" t="s">
         <v>9</v>
       </c>
@@ -1875,7 +1878,7 @@
       </c>
       <c r="J36" s="14"/>
     </row>
-    <row r="37" spans="2:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="49" t="s">
         <v>7</v>
       </c>
@@ -1896,7 +1899,7 @@
       <c r="J37" s="14"/>
       <c r="O37" s="16"/>
     </row>
-    <row r="38" spans="2:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="41" t="s">
         <v>10</v>
       </c>
@@ -1918,7 +1921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="50" t="s">
         <v>8</v>
       </c>
@@ -1937,7 +1940,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:15" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="32" t="s">
         <v>11</v>
       </c>
@@ -1954,7 +1957,7 @@
       <c r="G40" s="29"/>
       <c r="H40" s="30"/>
     </row>
-    <row r="41" spans="2:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="59" t="s">
         <v>11</v>
       </c>
@@ -1972,7 +1975,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:15" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="24" t="s">
         <v>7</v>
       </c>
@@ -1991,13 +1994,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
     </row>
   </sheetData>
